--- a/src/Leads/EastLondonLeadIntros.xlsx
+++ b/src/Leads/EastLondonLeadIntros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lona\CODE\LiiStudios\Tools\LeadGen Scraper\src\Leads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A769A-B17B-47B6-9972-1EB85F755952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB0EF5-616E-4436-878F-C0AB2F404DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="563">
   <si>
     <t>Name</t>
   </si>
@@ -2568,14 +2568,17 @@
 [Your Website (optional)]</t>
   </si>
   <si>
-    <t>.</t>
+    <t>first contact</t>
+  </si>
+  <si>
+    <t>very nice ladyies, and reffered me to their web developer or designer: megan(0745124659)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2588,13 +2591,64 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2632,15 +2686,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2655,15 +2710,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2962,13 +3092,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="64.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="83.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3015,1334 +3155,1198 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="G2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="9">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F3" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="G3" s="9">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>136</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>136</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1696</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>24</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="E7" s="9">
+        <v>65</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2237</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2237</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1813</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>949</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>142</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>335</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>931</v>
+      </c>
+      <c r="F12" s="9">
         <v>4.5</v>
       </c>
-      <c r="E2" s="5">
-        <v>1880</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>645</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1419</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>266</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>403</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>452</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>452</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1166</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9">
+        <v>244</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16" s="9">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1421</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9">
+        <v>37</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1608</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5">
+        <v>27</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1133</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1080</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>58</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E5" s="5">
-        <v>804</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>52</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1806</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>564</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="J19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D20" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E7" s="5">
-        <v>1166</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>244</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1248</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>156</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E9" s="5">
-        <v>156</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>126</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E10" s="5">
-        <v>930</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5">
-        <v>89</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="E20" s="5">
+        <v>2094</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2094</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1288</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>75</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="I20" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E12" s="5">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2312</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G13" s="5">
-        <v>243</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>332</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>98</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="E15" s="5">
-        <v>529</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5">
-        <v>42</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1936</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4</v>
-      </c>
-      <c r="G16" s="5">
-        <v>37</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E17" s="5">
-        <v>535</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>29</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="E18" s="5">
-        <v>65</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E19" s="5">
-        <v>258</v>
-      </c>
-      <c r="F19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G19" s="5">
-        <v>212</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E20" s="5">
-        <v>6065</v>
-      </c>
-      <c r="F20" s="5">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5">
-        <v>202</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4</v>
-      </c>
       <c r="E21" s="5">
-        <v>949</v>
+        <v>1475</v>
       </c>
       <c r="F21" s="5">
         <v>3.5</v>
       </c>
       <c r="G21" s="5">
-        <v>142</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>188</v>
+        <v>493</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>189</v>
+        <v>494</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>191</v>
+        <v>542</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>192</v>
+        <v>543</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>193</v>
+        <v>544</v>
       </c>
       <c r="D22" s="5">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E22" s="5">
-        <v>707</v>
+        <v>7</v>
       </c>
       <c r="F22" s="5">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G22" s="5">
-        <v>107</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>195</v>
+        <v>7</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>196</v>
+        <v>545</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>197</v>
+        <v>546</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>198</v>
+        <v>547</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="D23" s="5">
         <v>4.2</v>
       </c>
       <c r="E23" s="5">
+        <v>1936</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>37</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="E24" s="16">
+        <v>707</v>
+      </c>
+      <c r="F24" s="16">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16">
+        <v>107</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="E25" s="24">
         <v>1482</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F25" s="24">
         <v>3.5</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G25" s="24">
         <v>71</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H25" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I25" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J25" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K25" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L25" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M25" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1350</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="5">
-        <v>39</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="9">
         <v>4.2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="9">
         <v>1664</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="9">
         <v>4</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="9">
         <v>30</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I26" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J26" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K26" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L26" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M26" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5">
-        <v>335</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>532</v>
+      </c>
+      <c r="F27" s="5">
         <v>3.5</v>
       </c>
-      <c r="G26" s="5">
-        <v>23</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E27" s="5">
-        <v>131</v>
-      </c>
-      <c r="F27" s="5">
-        <v>4.5</v>
-      </c>
       <c r="G27" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>246</v>
+        <v>465</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
       <c r="D28" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E28" s="5">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="F28" s="5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G28" s="5">
-        <v>16</v>
+        <v>433</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>250</v>
+        <v>469</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>251</v>
+        <v>470</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>252</v>
+        <v>471</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>254</v>
+        <v>522</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>255</v>
+        <v>523</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="D29" s="5">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="E29" s="5">
-        <v>162</v>
+        <v>1006</v>
       </c>
       <c r="F29" s="5">
         <v>5</v>
       </c>
       <c r="G29" s="5">
-        <v>15</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>259</v>
+        <v>524</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>260</v>
+        <v>525</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>261</v>
+        <v>526</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>532</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G30" s="5">
-        <v>14</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1248</v>
+      </c>
+      <c r="F30" s="13">
+        <v>4</v>
+      </c>
+      <c r="G30" s="13">
+        <v>156</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="D31" s="5">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="E31" s="5">
-        <v>104</v>
+        <v>529</v>
       </c>
       <c r="F31" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="5">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D32" s="5">
@@ -4375,445 +4379,417 @@
       <c r="M32" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="N32" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="16">
         <v>4.3</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="16">
         <v>304</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="16">
         <v>4</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="D34" s="5">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="E34" s="5">
-        <v>2237</v>
+        <v>1499</v>
       </c>
       <c r="F34" s="5">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G34" s="5">
-        <v>2237</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="D35" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E35" s="5">
-        <v>230</v>
+        <v>3335</v>
       </c>
       <c r="F35" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="G35" s="5">
-        <v>230</v>
+        <v>3335</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="D36" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="E36" s="5">
-        <v>115</v>
+        <v>582</v>
       </c>
       <c r="F36" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="G36" s="5">
-        <v>115</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>321</v>
+        <v>9</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>322</v>
+        <v>438</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>327</v>
+        <v>482</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>328</v>
+        <v>483</v>
       </c>
       <c r="D37" s="5">
         <v>4.3</v>
       </c>
       <c r="E37" s="5">
-        <v>1499</v>
+        <v>83</v>
       </c>
       <c r="F37" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>83</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E38" s="20">
+        <v>930</v>
+      </c>
+      <c r="F38" s="20">
         <v>4</v>
       </c>
-      <c r="G37" s="5">
-        <v>86</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="G38" s="20">
+        <v>89</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E38" s="5">
-        <v>482</v>
-      </c>
-      <c r="F38" s="5">
-        <v>4</v>
-      </c>
-      <c r="G38" s="5">
-        <v>73</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="5">
-        <v>4.5</v>
-      </c>
       <c r="E39" s="5">
-        <v>1463</v>
+        <v>258</v>
       </c>
       <c r="F39" s="5">
         <v>4.5</v>
       </c>
       <c r="G39" s="5">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="D40" s="5">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E40" s="5">
-        <v>37</v>
+        <v>6065</v>
       </c>
       <c r="F40" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G40" s="5">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D41" s="5">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E41" s="5">
-        <v>3335</v>
+        <v>115</v>
       </c>
       <c r="F41" s="5">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G41" s="5">
-        <v>3335</v>
+        <v>115</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E42" s="5">
-        <v>2</v>
+        <v>482</v>
       </c>
       <c r="F42" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="5">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>373</v>
       </c>
@@ -4853,11 +4829,9 @@
       <c r="M43" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="N43" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>381</v>
       </c>
@@ -4897,965 +4871,1021 @@
       <c r="M44" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="N44" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E45" s="5">
+        <v>749</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1880</v>
+      </c>
+      <c r="F46" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G46" s="5">
+        <v>645</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1419</v>
+      </c>
+      <c r="F47" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G47" s="5">
+        <v>266</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E48" s="20">
+        <v>1080</v>
+      </c>
+      <c r="F48" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="G48" s="20">
+        <v>58</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="22"/>
+    </row>
+    <row r="49" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1288</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+      <c r="G49" s="5">
+        <v>75</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2312</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="5">
+        <v>243</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="E51" s="24">
+        <v>1350</v>
+      </c>
+      <c r="F51" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="G51" s="24">
+        <v>39</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M51" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="N51" s="26"/>
+    </row>
+    <row r="52" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>131</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G52" s="5">
+        <v>17</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1463</v>
+      </c>
+      <c r="F53" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="G53" s="20">
+        <v>111</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="N53" s="22"/>
+    </row>
+    <row r="54" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E54" s="5">
+        <v>37</v>
+      </c>
+      <c r="F54" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G54" s="5">
+        <v>37</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B55" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C55" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D55" s="27">
         <v>4.5</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E55" s="27">
         <v>159</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F55" s="27">
         <v>4.5</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G55" s="27">
         <v>159</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H55" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I55" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J55" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K55" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L55" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M55" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="N45" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="N55" s="29"/>
+    </row>
+    <row r="56" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E56" s="5">
+        <v>804</v>
+      </c>
+      <c r="F56" s="5">
+        <v>4</v>
+      </c>
+      <c r="G56" s="5">
+        <v>52</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1806</v>
+      </c>
+      <c r="F57" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G57" s="5">
+        <v>564</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E58" s="5">
+        <v>156</v>
+      </c>
+      <c r="F58" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G58" s="5">
+        <v>126</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E59" s="16">
+        <v>535</v>
+      </c>
+      <c r="F59" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="G59" s="16">
+        <v>29</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="N59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E60" s="16">
+        <v>296</v>
+      </c>
+      <c r="F60" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="G60" s="16">
+        <v>16</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E61" s="5">
+        <v>230</v>
+      </c>
+      <c r="F61" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G61" s="5">
+        <v>230</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E62" s="5">
+        <v>139</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G62" s="5">
+        <v>139</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="E63" s="5">
+        <v>332</v>
+      </c>
+      <c r="F63" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G63" s="5">
+        <v>98</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D64" s="5">
         <v>4.7</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E64" s="5">
         <v>33</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F64" s="5">
         <v>5</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G64" s="5">
         <v>11</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K64" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L64" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="M64" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="N46" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D47" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E47" s="5">
-        <v>139</v>
-      </c>
-      <c r="F47" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G47" s="5">
-        <v>139</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D48" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1421</v>
-      </c>
-      <c r="F48" s="5">
-        <v>3</v>
-      </c>
-      <c r="G48" s="5">
-        <v>37</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D49" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1608</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="E65" s="5">
+        <v>162</v>
+      </c>
+      <c r="F65" s="5">
+        <v>5</v>
+      </c>
+      <c r="G65" s="5">
+        <v>15</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="E66" s="5">
+        <v>104</v>
+      </c>
+      <c r="F66" s="5">
+        <v>5</v>
+      </c>
+      <c r="G66" s="5">
+        <v>12</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="E67" s="5">
         <v>4</v>
       </c>
-      <c r="G49" s="5">
-        <v>27</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D50" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1133</v>
-      </c>
-      <c r="F50" s="5">
-        <v>3</v>
-      </c>
-      <c r="G50" s="5">
-        <v>25</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D51" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="E51" s="5">
-        <v>582</v>
-      </c>
-      <c r="F51" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G51" s="5">
-        <v>9</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="E52" s="5">
-        <v>15</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="G52" s="5">
-        <v>15</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1813</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="F67" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="G67" s="5">
+        <v>4</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="5">
+        <v>5</v>
+      </c>
+      <c r="E68" s="5">
         <v>2</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D54" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2094</v>
-      </c>
-      <c r="F54" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G54" s="5">
-        <v>2094</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D55" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="E55" s="5">
-        <v>433</v>
-      </c>
-      <c r="F55" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="G55" s="5">
-        <v>433</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="E56" s="5">
-        <v>136</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="G56" s="5">
-        <v>136</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D57" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="E57" s="5">
-        <v>83</v>
-      </c>
-      <c r="F57" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="G57" s="5">
-        <v>83</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D58" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1475</v>
-      </c>
-      <c r="F58" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G58" s="5">
-        <v>9</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D59" s="5">
-        <v>4</v>
-      </c>
-      <c r="E59" s="5">
-        <v>931</v>
-      </c>
-      <c r="F59" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F68" s="5">
         <v>5</v>
       </c>
-      <c r="J59" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D60" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E60" s="5">
-        <v>749</v>
-      </c>
-      <c r="F60" s="5">
-        <v>4</v>
-      </c>
-      <c r="G60" s="5">
-        <v>5</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1696</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
-        <v>4</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D62" s="5">
-        <v>4</v>
-      </c>
-      <c r="E62" s="5">
-        <v>403</v>
-      </c>
-      <c r="F62" s="5">
-        <v>3</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="G68" s="5">
         <v>2</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D63" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1006</v>
-      </c>
-      <c r="F63" s="5">
-        <v>5</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D64" s="5">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5">
-        <v>452</v>
-      </c>
-      <c r="F64" s="5">
-        <v>4</v>
-      </c>
-      <c r="G64" s="5">
-        <v>452</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D65" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E65" s="5">
-        <v>24</v>
-      </c>
-      <c r="F65" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G65" s="5">
-        <v>24</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D66" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E66" s="5">
-        <v>7</v>
-      </c>
-      <c r="F66" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G66" s="5">
-        <v>7</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="E67" s="5">
-        <v>5</v>
-      </c>
-      <c r="F67" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="G67" s="5">
-        <v>5</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D68" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="E68" s="5">
-        <v>4</v>
-      </c>
-      <c r="F68" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="G68" s="5">
-        <v>4</v>
+      <c r="H68" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>557</v>
+        <v>369</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>558</v>
+        <v>370</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>559</v>
+        <v>371</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>561</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N68" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N68">
+    <sortCondition ref="D2:D68"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C46" r:id="rId1" xr:uid="{BCAE1022-C524-403E-BD30-130A49BAFC68}"/>
+    <hyperlink ref="C47" r:id="rId2" xr:uid="{7D85C595-8978-4A7C-991F-A1390DB40D1F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{CA982C52-073C-4CEF-893D-742281E8D84B}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{E80C991A-E487-4FF6-A2AD-E338CEE5718A}"/>
+    <hyperlink ref="C32" r:id="rId5" xr:uid="{88B1A028-6086-494F-BED3-8D608C081E3A}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{0B60E678-B4C8-4439-9E4C-82494582E98E}"/>
+    <hyperlink ref="K38" r:id="rId7" xr:uid="{189DCAD5-F8DB-4C6F-BAB1-CFA7410EECBF}"/>
+    <hyperlink ref="C50" r:id="rId8" xr:uid="{1EFDBAE1-0681-4487-B17D-AE462080EA22}"/>
+    <hyperlink ref="C51" r:id="rId9" xr:uid="{3EA83E47-0BE1-417B-AC4C-6CE502023D24}"/>
+    <hyperlink ref="C52" r:id="rId10" xr:uid="{25B6B85E-786A-446A-AB08-4E3F96C002F3}"/>
+    <hyperlink ref="C53" r:id="rId11" xr:uid="{18BD9B84-6581-4BE1-A78E-053B3E7D2BC5}"/>
+    <hyperlink ref="C54" r:id="rId12" xr:uid="{5D215BA9-3B6B-4844-BD3D-DC0A573248ED}"/>
+    <hyperlink ref="C56" r:id="rId13" xr:uid="{B38C772D-7906-4077-8B8B-5F4DBEC39C51}"/>
+    <hyperlink ref="C58" r:id="rId14" xr:uid="{00A41B31-0F0C-48D6-8F72-F45DEDC159FE}"/>
+    <hyperlink ref="C59" r:id="rId15" xr:uid="{1948B0A2-9FC1-4718-9CED-608FDA94291E}"/>
+    <hyperlink ref="C60" r:id="rId16" xr:uid="{7737BA3B-2E95-4146-AC10-A668D57C2279}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>